--- a/data/trans_bre/P27-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 16,05</t>
+          <t>4,85; 17,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 18,8</t>
+          <t>7,93; 18,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 17,49</t>
+          <t>5,4; 16,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 9,7</t>
+          <t>-2,78; 10,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 35,48</t>
+          <t>-0,36; 9,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,84; 46,38</t>
+          <t>0,93; 11,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 36,72</t>
+          <t>9,59; 38,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 17,09</t>
+          <t>16,77; 45,8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10,01; 34,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 22,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 16,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 25,24</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>28,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 16,25</t>
+          <t>2,34; 16,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 19,05</t>
+          <t>7,84; 20,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 18,6</t>
+          <t>4,95; 18,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 25,29</t>
+          <t>-5,47; 9,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 38,76</t>
+          <t>4,68; 24,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 44,53</t>
+          <t>-1,31; 18,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 41,0</t>
+          <t>4,6; 37,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,65; 57,65</t>
+          <t>15,67; 48,83</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 39,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 22,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 55,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 46,08</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>18,74</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,91%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52,64%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 27,06</t>
+          <t>0,47; 25,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 9,47</t>
+          <t>-13,58; 10,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 14,4</t>
+          <t>-10,77; 12,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,59; 33,27</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 81,04</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 19,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 30,14</t>
+          <t>1,33; 80,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-21,62; 21,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 25,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 126,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 13,92</t>
+          <t>5,74; 14,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,13</t>
+          <t>7,58; 15,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,96</t>
+          <t>5,96; 14,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,56</t>
+          <t>0,12; 9,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 31,58</t>
+          <t>2,51; 11,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 34,23</t>
+          <t>1,88; 11,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,72; 30,59</t>
+          <t>11,31; 32,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 20,73</t>
+          <t>15,34; 36,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 28,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 22,52</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 21,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 24,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P27-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>21,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,67%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>21,66%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.46684765741688</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.47328085595293</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.41844446741901</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.945734929952671</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.625680018346612</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>5.829339647323589</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2138114418167241</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3032227195181011</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2181050543193086</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.0787869555366586</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.07690063043821597</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1175590868728042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 17,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 18,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,4; 16,55</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 10,71</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 9,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 11,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 38,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16,77; 45,8</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>10,01; 34,2</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 22,56</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 16,67</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 25,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.608944395494555</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.734896324594952</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.801590437531766</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.042986753575966</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3572850170924313</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.7681502106317101</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.08871993688273086</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1638986505576497</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1063815118045679</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06087394143959995</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.006219334117461714</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.01432073458745928</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.89900060923609</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.71970954103958</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.58669812827758</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.56633270120594</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.719333968749119</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>11.6861892260889</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3797941204379107</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4596299356390502</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3421678558024319</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2249038424972966</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1667009218236424</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2498484527205057</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,08</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,62</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,81%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,91%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>23,52%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>30,2%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 16,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 20,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 18,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 9,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 24,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 18,48</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 37,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>15,67; 48,83</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>9,15; 39,54</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-10,92; 22,67</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 55,99</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 46,08</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.08944209342365</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.23397275283734</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.19112205571138</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.456697785442408</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>15.08159810010623</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.738264813533508</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2467552897845514</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2874166652639041</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2423663428252818</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.05347719320557953</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.3020132624782572</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.1928521303774149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>18,74</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>30,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,85%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>52,64%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.187924561855342</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.411325833919022</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.352858616641325</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.171607064616325</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.679658406661435</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.7206503769246256</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.08382351419532247</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1483839045601569</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1015917824372646</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1021717421828775</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.08459193951277313</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.01392637246851669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 25,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 10,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; 12,92</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 33,27</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 80,2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,62; 21,1</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; 25,94</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 126,54</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.27924925040793</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.99056971381295</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.63015144578816</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.700229793419581</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>24.65732602113627</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>18.88617287217436</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4510956924646788</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4817281513610764</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4098435214725623</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2306138622594532</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.5599070075797912</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4663015766245335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,36</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,64</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>22,16%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>24,92%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>19,86%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>13,67%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.52493799288865</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.837147305305965</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.109099834933671</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.50055110898962</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2862834595569754</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05016296062335313</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.05612373595033785</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5815487674088509</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 14,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 15,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 14,16</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 9,91</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 11,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 11,25</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>11,31; 32,08</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>15,34; 36,05</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10,91; 28,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 22,52</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 21,05</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 24,41</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.384607405448122</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.22901839024743</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.670715400106809</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.264748589543165</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.02596368256504285</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2279462943821099</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1387344680497558</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.05906730466273591</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.35799631404996</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.09059566674701</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.37309258826006</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>34.64258089603269</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.7933750184250856</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1804070554431562</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3284010954874734</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.332183867167948</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>11.04054929907635</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.38807663159794</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.77506926102661</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.455083176384312</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.127168675920947</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.567308639840174</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2363331557923896</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2445571326952226</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2075914712896545</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1170739240878621</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.1235163582540912</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1352724617201067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.344732551821022</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.377993745085303</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.505909282076565</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3562014809818467</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.512315427896651</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1.871344618737754</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1244127131672119</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1517207852515441</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1189871767138936</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.006011392868774244</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.04239130881152639</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.03466362258842592</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.00520260896667</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.51612980482431</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.68525731135646</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.946240968083792</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.61618385480383</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>11.13913140103469</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3369736537347444</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.355052420767614</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2986739599404106</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.224842187381327</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2105010966354826</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2412229238949261</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
